--- a/results/I3_N5_M2_T45_C150_DepLowerLeft_s0_res.xlsx
+++ b/results/I3_N5_M2_T45_C150_DepLowerLeft_s0_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1855.943803711144</v>
+        <v>48.44265157269915</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.059000015258789</v>
+        <v>0.3459999561309814</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>46.14989543056733</v>
+        <v>40.44265157269914</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16.76389053823837</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5.42779881720021</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1713.630000001615</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>107.5</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -580,61 +580,6 @@
         <is>
           <t>alpha</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>4</v>
-      </c>
-      <c r="B3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>4</v>
-      </c>
-      <c r="B4" t="n">
-        <v>3</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="n">
-        <v>4</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>5</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -678,7 +623,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -689,7 +634,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -700,7 +645,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -711,7 +656,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -722,7 +667,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -733,7 +678,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -744,7 +689,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -824,7 +769,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -835,7 +780,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -907,7 +852,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>30</v>
+        <v>35.63858450874014</v>
       </c>
     </row>
     <row r="4">
@@ -915,7 +860,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>30</v>
+        <v>31.75223660871884</v>
       </c>
     </row>
     <row r="5">
@@ -923,7 +868,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>34.35124120223175</v>
+        <v>39.81299701176103</v>
       </c>
     </row>
     <row r="6">
@@ -931,7 +876,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>17.73386173754261</v>
+        <v>34.13804704024778</v>
       </c>
     </row>
     <row r="7">
@@ -939,7 +884,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>15</v>
+        <v>36.87190877779048</v>
       </c>
     </row>
     <row r="8">
@@ -969,7 +914,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -997,146 +942,6 @@
         <is>
           <t>y</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B2" t="n">
-        <v>6</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="n">
-        <v>6</v>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>6</v>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>2</v>
-      </c>
-      <c r="B5" t="n">
-        <v>6</v>
-      </c>
-      <c r="C5" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>2</v>
-      </c>
-      <c r="B6" t="n">
-        <v>6</v>
-      </c>
-      <c r="C6" t="n">
-        <v>5</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>4</v>
-      </c>
-      <c r="B7" t="n">
-        <v>2</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>4</v>
-      </c>
-      <c r="B8" t="n">
-        <v>2</v>
-      </c>
-      <c r="C8" t="n">
-        <v>2</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>4</v>
-      </c>
-      <c r="B9" t="n">
-        <v>2</v>
-      </c>
-      <c r="C9" t="n">
-        <v>3</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>4</v>
-      </c>
-      <c r="B10" t="n">
-        <v>2</v>
-      </c>
-      <c r="C10" t="n">
-        <v>4</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>4</v>
-      </c>
-      <c r="B11" t="n">
-        <v>2</v>
-      </c>
-      <c r="C11" t="n">
-        <v>5</v>
-      </c>
-      <c r="D11" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1238,7 +1043,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>68.17500000001201</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8">
@@ -1249,7 +1054,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>76.13000000001195</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9">
@@ -1260,7 +1065,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>75.84000000001107</v>
+        <v>136</v>
       </c>
     </row>
     <row r="10">
@@ -1271,7 +1076,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>76.91000000001077</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11">
@@ -1282,7 +1087,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>75.84999999999999</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12">
@@ -1293,7 +1098,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>285.420000000099</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13">
@@ -1304,7 +1109,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>293.7350000001024</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14">
@@ -1315,7 +1120,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>305.2100000000944</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15">
@@ -1326,7 +1131,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>310.9800000000978</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16">
@@ -1337,7 +1142,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>303.5600000000995</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17">
@@ -1348,7 +1153,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>167.7200000000508</v>
+        <v>148</v>
       </c>
     </row>
     <row r="18">
@@ -1359,7 +1164,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>168.645000000053</v>
+        <v>135</v>
       </c>
     </row>
     <row r="19">
@@ -1370,7 +1175,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>175.9100000000482</v>
+        <v>150</v>
       </c>
     </row>
     <row r="20">
@@ -1381,7 +1186,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>167.00500000005</v>
+        <v>154</v>
       </c>
     </row>
     <row r="21">
@@ -1392,7 +1197,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>178.63000000005</v>
+        <v>144</v>
       </c>
     </row>
     <row r="22">
@@ -1403,7 +1208,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>174.0200000000478</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23">
@@ -1414,7 +1219,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>171.6700000000547</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24">
@@ -1425,7 +1230,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>188.49500000005</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25">
@@ -1436,7 +1241,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>185.7700000000496</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26">
@@ -1447,7 +1252,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>180.9300000000549</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27">
@@ -1458,7 +1263,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>70.23000000001048</v>
+        <v>92</v>
       </c>
     </row>
     <row r="28">
@@ -1469,7 +1274,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>80.23000000001048</v>
+        <v>86</v>
       </c>
     </row>
     <row r="29">
@@ -1480,7 +1285,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>86.27500000000873</v>
+        <v>96</v>
       </c>
     </row>
     <row r="30">
@@ -1491,7 +1296,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>87.40500000001157</v>
+        <v>103</v>
       </c>
     </row>
     <row r="31">
@@ -1502,7 +1307,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>84.39000000001033</v>
+        <v>90</v>
       </c>
     </row>
     <row r="32">
@@ -1513,7 +1318,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>285.4200000001038</v>
+        <v>148</v>
       </c>
     </row>
     <row r="33">
@@ -1524,7 +1329,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>293.7350000001073</v>
+        <v>135</v>
       </c>
     </row>
     <row r="34">
@@ -1535,7 +1340,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>305.2100000000992</v>
+        <v>150</v>
       </c>
     </row>
     <row r="35">
@@ -1546,7 +1351,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>310.9800000001022</v>
+        <v>154</v>
       </c>
     </row>
     <row r="36">
@@ -1557,7 +1362,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>303.5600000001039</v>
+        <v>144</v>
       </c>
     </row>
     <row r="37">
@@ -1568,7 +1373,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>167.7200000000636</v>
+        <v>130</v>
       </c>
     </row>
     <row r="38">
@@ -1579,7 +1384,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>168.6450000000637</v>
+        <v>141</v>
       </c>
     </row>
     <row r="39">
@@ -1590,7 +1395,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>175.9100000000589</v>
+        <v>136</v>
       </c>
     </row>
     <row r="40">
@@ -1601,7 +1406,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>167.0050000000625</v>
+        <v>137</v>
       </c>
     </row>
     <row r="41">
@@ -1612,7 +1417,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>178.6300000000607</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -1659,7 +1464,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>135.420000000102</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1670,7 +1475,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>143.7350000001055</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1681,7 +1486,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>155.2100000000975</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1692,7 +1497,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>160.980000000101</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -1703,7 +1508,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>153.5600000001026</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1714,7 +1519,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>17.72000000006142</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1725,7 +1530,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>18.6450000000616</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1736,7 +1541,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>25.91000000005681</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1747,7 +1552,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>17.00500000006036</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1758,7 +1563,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>28.63000000005854</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1970,7 +1775,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>4.725</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1981,7 +1786,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>5.48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1992,7 +1797,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>4.425</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2003,7 +1808,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>5.38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2014,7 +1819,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>3.95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2025,7 +1830,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>6.99</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2036,7 +1841,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>7.115</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2047,7 +1852,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>5.205</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2058,7 +1863,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>4.455</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2069,7 +1874,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>6.025</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2083,7 +1888,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2110,10 +1915,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -2121,155 +1926,12 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>3</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>2</v>
-      </c>
-      <c r="B5" t="n">
-        <v>4</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>2</v>
-      </c>
-      <c r="B6" t="n">
-        <v>5</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>3</v>
-      </c>
-      <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>3</v>
-      </c>
-      <c r="B8" t="n">
-        <v>2</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>3</v>
-      </c>
-      <c r="B9" t="n">
-        <v>3</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>3</v>
-      </c>
-      <c r="B10" t="n">
-        <v>4</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>3</v>
-      </c>
-      <c r="B11" t="n">
-        <v>5</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>4</v>
-      </c>
-      <c r="B12" t="n">
-        <v>1</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>4</v>
-      </c>
-      <c r="B13" t="n">
-        <v>2</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>4</v>
-      </c>
-      <c r="B14" t="n">
-        <v>3</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>4</v>
-      </c>
-      <c r="B15" t="n">
-        <v>4</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>4</v>
-      </c>
-      <c r="B16" t="n">
-        <v>5</v>
-      </c>
-      <c r="C16" t="n">
         <v>1</v>
       </c>
     </row>
